--- a/GMLA loading analysis/(Input) New Production Status Summary.xlsx
+++ b/GMLA loading analysis/(Input) New Production Status Summary.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1013">
-  <si>
-    <t>New Production Status Summary 2023-07-31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1019">
+  <si>
+    <t>New Production Status Summary 2023-08-07</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">Stephen.Shen
@@ -402,6 +405,7 @@
   </si>
   <si>
     <t xml:space="preserve">Tina.Yang
+Neo.Lin
 </t>
   </si>
   <si>
@@ -700,6 +704,15 @@
     <t>1171</t>
   </si>
   <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
     <t>DEZL 2024 - OTR725</t>
   </si>
   <si>
@@ -963,9 +976,6 @@
   </si>
   <si>
     <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>2023-05-08</t>
   </si>
   <si>
     <t>2024-06-03</t>
@@ -1119,6 +1129,28 @@
 </t>
   </si>
   <si>
+    <t>Xero G2i Scouting Camera</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>16543</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek.Cheng
+</t>
+  </si>
+  <si>
     <t>GPSMAP 16X3 Chartplotters</t>
   </si>
   <si>
@@ -1162,28 +1194,6 @@
   <si>
     <t xml:space="preserve">Viola.Kao
 Daniel.Tsai
-</t>
-  </si>
-  <si>
-    <t>Xero G2i Scouting Camera</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>16543</t>
-  </si>
-  <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
-    <t>2023-03-21</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derek.Cheng
 </t>
   </si>
   <si>
@@ -1315,9 +1325,6 @@
     <t>2022-11-18</t>
   </si>
   <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooper.Wang
 </t>
   </si>
@@ -1552,9 +1559,6 @@
     <t>1178</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Descent Mk3 Series - Large</t>
   </si>
   <si>
@@ -1576,7 +1580,7 @@
     <t>2023-06-27</t>
   </si>
   <si>
-    <t>15</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">Shawn.Huang
@@ -1613,6 +1617,9 @@
     <t>2023-02-06</t>
   </si>
   <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -1635,7 +1642,7 @@
     <t>10170</t>
   </si>
   <si>
-    <t>2023-10-05</t>
+    <t>2023-10-09</t>
   </si>
   <si>
     <t>2022-10-19</t>
@@ -1644,7 +1651,10 @@
     <t>2023-04-21</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Shawn.Yu
@@ -1667,10 +1677,7 @@
     <t>2023-10-02</t>
   </si>
   <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>2023-08-02</t>
   </si>
   <si>
     <t>Descent S1 Buoy</t>
@@ -1782,7 +1789,14 @@
     <t>2023-03-31</t>
   </si>
   <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lulu.Lee
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tina.Yang
 </t>
   </si>
   <si>
@@ -1883,9 +1897,6 @@
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shawn.Huang
 Andy.Chuang
 Ruby.Huang
@@ -1922,91 +1933,19 @@
     <t>2022-01-14</t>
   </si>
   <si>
-    <t>Connect 50 transition to Taiwan Manufacturing</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>16347</t>
+    <t>GPSMAP 9000 - 19"</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000</t>
+  </si>
+  <si>
+    <t>9946</t>
   </si>
   <si>
     <t>2023-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte.Chen
-</t>
-  </si>
-  <si>
-    <t>Xero C1 Chronograph</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
-    <t>12253</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
-    <t>2020-09-22</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>2021-07-29</t>
-  </si>
-  <si>
-    <t>2023-05-12</t>
-  </si>
-  <si>
-    <t>Panoptix PS70 - (SSMB)</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>10091</t>
-  </si>
-  <si>
-    <t>2021-08-05</t>
-  </si>
-  <si>
-    <t>2021-11-25</t>
-  </si>
-  <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>2022-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy.Kuo
-Darren.Chen
-</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000 - 19"</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000</t>
-  </si>
-  <si>
-    <t>9946</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
   </si>
   <si>
     <t>2021-05-11</t>
@@ -2057,6 +1996,19 @@
     <t>1052</t>
   </si>
   <si>
+    <t>Connect 50 transition to Taiwan Manufacturing</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>16347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte.Chen
+</t>
+  </si>
+  <si>
     <t>BlueNet Gateway</t>
   </si>
   <si>
@@ -2066,6 +2018,9 @@
     <t>9756</t>
   </si>
   <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
     <t>2021-03-17</t>
   </si>
   <si>
@@ -2100,6 +2055,59 @@
 </t>
   </si>
   <si>
+    <t>Xero C1 Chronograph</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>12253</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>Panoptix PS70 - (SSMB)</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>10091</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy.Kuo
+Darren.Chen
+</t>
+  </si>
+  <si>
     <t>GMR xHD3 Domes (18/24xHD replacement)</t>
   </si>
   <si>
@@ -2107,6 +2115,9 @@
   </si>
   <si>
     <t>16246</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
   </si>
   <si>
     <t>2022-04-01</t>
@@ -2497,9 +2508,6 @@
     <t>2022-01-25</t>
   </si>
   <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
     <t>BMW MGU22/IDC</t>
   </si>
   <si>
@@ -3058,6 +3066,21 @@
   <si>
     <t xml:space="preserve">Ken.Kuo
 Nixon.Pan
+</t>
+  </si>
+  <si>
+    <t>LXMY24</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>17227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim.Shen
+Tom.Hsiao
+Colby.Ren
 </t>
   </si>
   <si>
@@ -3300,7 +3323,7 @@
     <t>14854</t>
   </si>
   <si>
-    <t>Enduro 2023</t>
+    <t>Enduro 3 (Pando)</t>
   </si>
   <si>
     <t>1047</t>
@@ -3318,7 +3341,7 @@
     <t>2021-11-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Stansy.Wang
+    <t xml:space="preserve">Roger.Huang
 </t>
   </si>
   <si>
@@ -3428,7 +3451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3687,45 +3710,45 @@
         <v>35</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>49</v>
@@ -3734,22 +3757,22 @@
         <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>35</v>
@@ -3761,30 +3784,30 @@
         <v>37</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -3793,27 +3816,27 @@
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>35</v>
@@ -3825,13 +3848,13 @@
         <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>41</v>
@@ -3839,45 +3862,45 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>35</v>
@@ -3889,57 +3912,57 @@
         <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -3951,30 +3974,30 @@
         <v>37</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>46</v>
@@ -3983,13 +4006,13 @@
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -3997,7 +4020,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>35</v>
@@ -4009,39 +4032,39 @@
         <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -4051,7 +4074,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>35</v>
@@ -4063,57 +4086,57 @@
         <v>37</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>35</v>
@@ -4125,57 +4148,57 @@
         <v>37</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>35</v>
@@ -4187,59 +4210,59 @@
         <v>37</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>35</v>
@@ -4251,63 +4274,63 @@
         <v>37</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>35</v>
@@ -4319,59 +4342,59 @@
         <v>37</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>35</v>
@@ -4383,59 +4406,59 @@
         <v>37</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>35</v>
@@ -4447,51 +4470,51 @@
         <v>37</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>35</v>
@@ -4503,51 +4526,55 @@
         <v>37</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>35</v>
@@ -4559,51 +4586,51 @@
         <v>37</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>35</v>
@@ -4615,61 +4642,61 @@
         <v>37</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>35</v>
@@ -4681,39 +4708,39 @@
         <v>37</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4721,11 +4748,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>35</v>
@@ -4740,10 +4767,10 @@
         <v>38</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>37</v>
@@ -4751,16 +4778,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>46</v>
@@ -4769,27 +4796,27 @@
         <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>35</v>
@@ -4801,30 +4828,30 @@
         <v>37</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>46</v>
@@ -4833,13 +4860,13 @@
         <v>47</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -4847,7 +4874,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>35</v>
@@ -4859,39 +4886,39 @@
         <v>37</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4901,7 +4928,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>35</v>
@@ -4913,99 +4940,99 @@
         <v>37</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -5015,7 +5042,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>35</v>
@@ -5027,59 +5054,59 @@
         <v>37</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>35</v>
@@ -5091,55 +5118,55 @@
         <v>37</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>35</v>
@@ -5151,13 +5178,13 @@
         <v>37</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>41</v>
@@ -5165,45 +5192,45 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>35</v>
@@ -5215,13 +5242,13 @@
         <v>37</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -5229,16 +5256,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>46</v>
@@ -5247,23 +5274,23 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>35</v>
@@ -5275,13 +5302,13 @@
         <v>37</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>41</v>
@@ -5289,43 +5316,43 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>35</v>
@@ -5337,59 +5364,59 @@
         <v>37</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>35</v>
@@ -5401,123 +5428,117 @@
         <v>37</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>335</v>
+        <v>146</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K34" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>35</v>
@@ -5529,16 +5550,16 @@
         <v>37</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
@@ -5555,23 +5576,33 @@
         <v>343</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>35</v>
@@ -5583,53 +5614,49 @@
         <v>37</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>349</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>35</v>
@@ -5641,103 +5668,103 @@
         <v>37</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -5747,51 +5774,51 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -5801,7 +5828,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>35</v>
@@ -5819,33 +5846,33 @@
         <v>37</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -5855,7 +5882,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>35</v>
@@ -5867,7 +5894,7 @@
         <v>37</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>37</v>
@@ -5881,25 +5908,25 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -5909,7 +5936,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>35</v>
@@ -5927,53 +5954,53 @@
         <v>37</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>35</v>
@@ -5985,63 +6012,63 @@
         <v>37</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>35</v>
@@ -6053,59 +6080,59 @@
         <v>37</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>35</v>
@@ -6117,59 +6144,59 @@
         <v>37</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>35</v>
@@ -6181,59 +6208,59 @@
         <v>37</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>35</v>
@@ -6245,63 +6272,63 @@
         <v>37</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>35</v>
@@ -6313,55 +6340,55 @@
         <v>37</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>35</v>
@@ -6373,57 +6400,57 @@
         <v>37</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>35</v>
@@ -6435,13 +6462,13 @@
         <v>37</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>41</v>
@@ -6449,61 +6476,61 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>41</v>
@@ -6511,121 +6538,123 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N52" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="O52" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>37</v>
@@ -6634,36 +6663,36 @@
         <v>38</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -6671,31 +6700,31 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>37</v>
@@ -6703,25 +6732,25 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -6730,138 +6759,138 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>499</v>
+        <v>262</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>35</v>
@@ -6873,61 +6902,61 @@
         <v>37</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>35</v>
@@ -6939,13 +6968,13 @@
         <v>37</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>41</v>
@@ -6953,45 +6982,47 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="N58" s="4"/>
+        <v>534</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="O58" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>35</v>
@@ -7003,121 +7034,121 @@
         <v>37</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>118</v>
+        <v>537</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>35</v>
@@ -7129,127 +7160,127 @@
         <v>37</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>563</v>
+        <v>36</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>35</v>
@@ -7261,247 +7292,251 @@
         <v>37</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+        <v>581</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R63" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>351</v>
+        <v>586</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>37</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>579</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="L64" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>587</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
       <c r="O64" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R64" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>171</v>
+        <v>586</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>243</v>
+        <v>587</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>55</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>448</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R65" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>351</v>
+        <v>586</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>150</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>35</v>
@@ -7513,255 +7548,253 @@
         <v>37</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="R67" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>606</v>
+        <v>340</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>608</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>599</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>221</v>
+        <v>573</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="O68" s="4" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="R68" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>607</v>
+        <v>307</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>608</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>221</v>
+        <v>573</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="O69" s="4" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R69" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>608</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="L70" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="L70" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="O70" s="4" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>35</v>
@@ -7773,63 +7806,61 @@
         <v>37</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>618</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>624</v>
+        <v>450</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>35</v>
@@ -7841,81 +7872,81 @@
         <v>37</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>221</v>
+        <v>573</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R72" s="4" t="s">
         <v>37</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>41</v>
@@ -7923,41 +7954,41 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>35</v>
@@ -7969,59 +8000,59 @@
         <v>37</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>35</v>
@@ -8033,39 +8064,39 @@
         <v>37</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -8075,7 +8106,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>35</v>
@@ -8087,63 +8118,63 @@
         <v>37</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>35</v>
@@ -8155,13 +8186,13 @@
         <v>37</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>41</v>
@@ -8169,49 +8200,49 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>35</v>
@@ -8223,59 +8254,59 @@
         <v>37</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="P78" s="4" t="s">
         <v>35</v>
@@ -8287,63 +8318,63 @@
         <v>37</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>35</v>
@@ -8355,13 +8386,13 @@
         <v>37</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>41</v>
@@ -8369,49 +8400,49 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>49</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="P80" s="4" t="s">
         <v>35</v>
@@ -8423,13 +8454,13 @@
         <v>37</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>41</v>
@@ -8437,25 +8468,25 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8465,10 +8496,10 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q81" s="4" t="s">
         <v>36</v>
@@ -8477,10 +8508,10 @@
         <v>37</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>37</v>
@@ -8491,41 +8522,41 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>35</v>
@@ -8537,13 +8568,13 @@
         <v>37</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>41</v>
@@ -8551,47 +8582,47 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="F83" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P83" s="4" t="s">
         <v>35</v>
@@ -8603,61 +8634,61 @@
         <v>37</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>35</v>
@@ -8669,63 +8700,63 @@
         <v>37</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="P85" s="4" t="s">
         <v>36</v>
@@ -8737,39 +8768,39 @@
         <v>37</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -8779,7 +8810,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="P86" s="4" t="s">
         <v>36</v>
@@ -8791,63 +8822,63 @@
         <v>37</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>749</v>
+        <v>208</v>
       </c>
       <c r="P87" s="4" t="s">
         <v>35</v>
@@ -8859,57 +8890,57 @@
         <v>37</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="P88" s="4" t="s">
         <v>36</v>
@@ -8921,61 +8952,61 @@
         <v>37</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="P89" s="4" t="s">
         <v>35</v>
@@ -8987,63 +9018,63 @@
         <v>37</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="P90" s="4" t="s">
         <v>35</v>
@@ -9055,61 +9086,61 @@
         <v>37</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>35</v>
@@ -9121,59 +9152,59 @@
         <v>37</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P92" s="4" t="s">
         <v>36</v>
@@ -9185,57 +9216,57 @@
         <v>37</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P93" s="4" t="s">
         <v>35</v>
@@ -9247,63 +9278,63 @@
         <v>37</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P94" s="4" t="s">
         <v>36</v>
@@ -9315,63 +9346,63 @@
         <v>37</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P95" s="4" t="s">
         <v>35</v>
@@ -9383,61 +9414,61 @@
         <v>37</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="P96" s="4" t="s">
         <v>36</v>
@@ -9449,59 +9480,59 @@
         <v>37</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>35</v>
@@ -9513,63 +9544,63 @@
         <v>37</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>36</v>
@@ -9581,63 +9612,63 @@
         <v>37</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>36</v>
@@ -9649,61 +9680,61 @@
         <v>37</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>35</v>
@@ -9715,59 +9746,59 @@
         <v>37</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="P101" s="4" t="s">
         <v>36</v>
@@ -9779,39 +9810,39 @@
         <v>37</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -9821,7 +9852,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="P102" s="4" t="s">
         <v>35</v>
@@ -9833,10 +9864,10 @@
         <v>37</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>37</v>
@@ -9847,41 +9878,41 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="P103" s="4" t="s">
         <v>35</v>
@@ -9893,39 +9924,39 @@
         <v>37</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -9935,7 +9966,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="P104" s="4" t="s">
         <v>36</v>
@@ -9947,39 +9978,39 @@
         <v>37</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -9989,7 +10020,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>36</v>
@@ -10001,39 +10032,39 @@
         <v>37</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -10041,13 +10072,13 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="P106" s="4" t="s">
         <v>35</v>
@@ -10059,61 +10090,61 @@
         <v>37</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>36</v>
@@ -10125,45 +10156,45 @@
         <v>37</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -10171,7 +10202,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="P108" s="4" t="s">
         <v>35</v>
@@ -10186,54 +10217,54 @@
         <v>37</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="P109" s="4" t="s">
         <v>35</v>
@@ -10245,54 +10276,54 @@
         <v>37</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q110" s="4" t="s">
         <v>36</v>
@@ -10301,36 +10332,36 @@
         <v>37</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>922</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>924</v>
+        <v>26</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -10351,36 +10382,36 @@
         <v>37</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>278</v>
+        <v>925</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>364</v>
+        <v>930</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -10401,36 +10432,36 @@
         <v>37</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -10451,36 +10482,36 @@
         <v>37</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -10501,36 +10532,36 @@
         <v>37</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>934</v>
+        <v>37</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>418</v>
+        <v>150</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -10551,36 +10582,36 @@
         <v>37</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>938</v>
+        <v>340</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>940</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>364</v>
+        <v>902</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -10601,36 +10632,36 @@
         <v>37</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>147</v>
+        <v>944</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>37</v>
+        <v>945</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>451</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -10651,36 +10682,36 @@
         <v>37</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -10701,36 +10732,36 @@
         <v>37</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>950</v>
+        <v>185</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>951</v>
+        <v>248</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>952</v>
-      </c>
       <c r="D119" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -10751,36 +10782,36 @@
         <v>37</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>904</v>
+        <v>956</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>37</v>
+        <v>957</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -10801,36 +10832,36 @@
         <v>37</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -10851,36 +10882,36 @@
         <v>37</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>802</v>
+        <v>96</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>442</v>
+        <v>964</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>648</v>
+        <v>71</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -10901,36 +10932,36 @@
         <v>37</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>37</v>
+        <v>804</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>37</v>
+        <v>651</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>710</v>
+        <v>46</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -10951,36 +10982,36 @@
         <v>37</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>969</v>
+        <v>37</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>37</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>46</v>
+        <v>713</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -11001,33 +11032,33 @@
         <v>37</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>815</v>
+        <v>443</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>533</v>
+        <v>975</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>648</v>
+        <v>37</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>451</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>47</v>
@@ -11051,36 +11082,36 @@
         <v>37</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>976</v>
+        <v>536</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>194</v>
+        <v>651</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -11089,9 +11120,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="4" t="s">
-        <v>884</v>
-      </c>
+      <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4" t="s">
         <v>36</v>
@@ -11103,36 +11132,36 @@
         <v>37</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>96</v>
+        <v>982</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>150</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>140</v>
+        <v>902</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -11141,7 +11170,9 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
+      <c r="N127" s="4" t="s">
+        <v>886</v>
+      </c>
       <c r="O127" s="4"/>
       <c r="P127" s="4" t="s">
         <v>36</v>
@@ -11153,53 +11184,43 @@
         <v>37</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>983</v>
+        <v>97</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>990</v>
-      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -11213,48 +11234,58 @@
         <v>37</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>508</v>
+        <v>989</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="I129" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>996</v>
+      </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q129" s="4" t="s">
         <v>36</v>
@@ -11263,58 +11294,48 @@
         <v>37</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>904</v>
+        <v>510</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>905</v>
+        <v>195</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>906</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>46</v>
+        <v>713</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>999</v>
-      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q130" s="4" t="s">
         <v>36</v>
@@ -11323,43 +11344,53 @@
         <v>37</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1000</v>
+        <v>906</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>54</v>
+        <v>907</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>393</v>
+        <v>908</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="I131" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>1005</v>
+      </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -11373,36 +11404,36 @@
         <v>37</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1008</v>
+        <v>225</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>365</v>
+        <v>47</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -11423,36 +11454,36 @@
         <v>37</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>37</v>
+        <v>1010</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>900</v>
+        <v>1014</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -11467,22 +11498,72 @@
         <v>36</v>
       </c>
       <c r="Q133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R133" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q134" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S133" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T133" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V133" s="1" t="s">
-        <v>55</v>
+      <c r="R134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/GMLA loading analysis/(Input) New Production Status Summary.xlsx
+++ b/GMLA loading analysis/(Input) New Production Status Summary.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1137">
-  <si>
-    <t>New Production Status Summary 2023-11-12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="1151">
+  <si>
+    <t>New Production Status Summary 2023-11-20</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -168,6 +168,42 @@
 </t>
   </si>
   <si>
+    <t>Garmin Fixed Mount VHF with AIS</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>16743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed Design </t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derek.Cheng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star.Shao
+Ruby.Chang
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexty.Chang
+Nick.Yen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn.Wang
+</t>
+  </si>
+  <si>
     <t>Aviation Headset -</t>
   </si>
   <si>
@@ -175,9 +211,6 @@
   </si>
   <si>
     <t>16319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailed Design </t>
   </si>
   <si>
     <t>Automotive</t>
@@ -220,10 +253,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Evelyn.Wang
-</t>
-  </si>
-  <si>
     <t>Xero G2i Scouting Camera</t>
   </si>
   <si>
@@ -249,10 +278,6 @@
   </si>
   <si>
     <t>2025-05-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derek.Cheng
-</t>
   </si>
   <si>
     <t xml:space="preserve">Frankie.Lee
@@ -473,31 +498,6 @@
 </t>
   </si>
   <si>
-    <t>Garmin Fixed Mount VHF with AIS</t>
-  </si>
-  <si>
-    <t>1184</t>
-  </si>
-  <si>
-    <t>16743</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Star.Shao
-Ruby.Chang
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexty.Chang
-Nick.Yen
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rally 110/210 Family </t>
   </si>
   <si>
@@ -968,8 +968,8 @@
     <t>2023-10-24</t>
   </si>
   <si>
-    <t xml:space="preserve">Erichw.Wang
-Davidsd.Lin
+    <t xml:space="preserve">Davidsd.Lin
+Erichw.Wang
 </t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Steve.Lee
+    <t xml:space="preserve">Daniel.Tsai
 </t>
   </si>
   <si>
@@ -1143,6 +1143,70 @@
     <t>2024-08-19</t>
   </si>
   <si>
+    <t>2024 Value Dash Cams(DC48)</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>2024 Value Dash Cams</t>
+  </si>
+  <si>
+    <t>16544</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris.Wu
+Stephen.Shen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amberif.Wang
+Bettyyz.Wang
+Frankie.Lee
+Jasonch.Chen
+Johnny.Liu
+</t>
+  </si>
+  <si>
+    <t>2024 Value Dash Cams(Mini3)</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Instinct SE (45 mm)</t>
   </si>
   <si>
@@ -1208,7 +1272,7 @@
     <t>2023-12-15</t>
   </si>
   <si>
-    <t>2024-03-22</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">Janet.Sun
@@ -1372,55 +1436,6 @@
   <si>
     <t xml:space="preserve">Eason.Chen
 JeffPY.Liao
-</t>
-  </si>
-  <si>
-    <t>DC-2023 Premium Dash Cameras</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>16199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot Run </t>
-  </si>
-  <si>
-    <t>2024-06-12</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>2022-08-05</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloe.Lin2
-Johnny.Liu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donna.Chiu
-Sandy.Lee
 </t>
   </si>
   <si>
@@ -1459,10 +1474,10 @@
 </t>
   </si>
   <si>
-    <t>DEZL 2024 - OTR820/1020</t>
-  </si>
-  <si>
-    <t>1170</t>
+    <t>DEZL 2024 - OTR725</t>
+  </si>
+  <si>
+    <t>1183</t>
   </si>
   <si>
     <t>DEZL 2024</t>
@@ -1492,6 +1507,12 @@
 </t>
   </si>
   <si>
+    <t>DEZL 2024 - OTR820/1020</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
     <t>DEZL 2024 - OTR620/720</t>
   </si>
   <si>
@@ -1507,12 +1528,6 @@
     <t>2023-09-15</t>
   </si>
   <si>
-    <t>DEZL 2024 - OTR725</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
     <t>Motorcycle Radar 2023</t>
   </si>
   <si>
@@ -1531,12 +1546,15 @@
     <t>2023-11-10</t>
   </si>
   <si>
+    <t>Enduro 3 XT (Pando)</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
     <t>Enduro 3 Sport (Pando)</t>
   </si>
   <si>
-    <t>1047</t>
-  </si>
-  <si>
     <t>14704</t>
   </si>
   <si>
@@ -1599,6 +1617,9 @@
     <t>16584</t>
   </si>
   <si>
+    <t xml:space="preserve">Pilot Run </t>
+  </si>
+  <si>
     <t>2023-05-16</t>
   </si>
   <si>
@@ -1640,9 +1661,6 @@
   </si>
   <si>
     <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">JeffPY.Liao
@@ -1690,6 +1708,46 @@
 </t>
   </si>
   <si>
+    <t>DC-2023 Premium Dash Cameras</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>16199</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloe.Lin2
+Johnny.Liu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna.Chiu
+Sandy.Lee
+</t>
+  </si>
+  <si>
     <t>GPSMAP 9500</t>
   </si>
   <si>
@@ -1748,55 +1806,6 @@
 </t>
   </si>
   <si>
-    <t>2024 Value Dash Cams(DC48)</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>2024 Value Dash Cams</t>
-  </si>
-  <si>
-    <t>16544</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2023-01-13</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iris.Wu
-Stephen.Shen
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amberif.Wang
-Bettyyz.Wang
-Frankie.Lee
-Jasonch.Chen
-Johnny.Liu
-</t>
-  </si>
-  <si>
-    <t>2024 Value Dash Cams(Mini3)</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
     <t>Drive 53 w/ Type-C</t>
   </si>
   <si>
@@ -1947,6 +1956,9 @@
     <t>2023-06-08</t>
   </si>
   <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Star.Shao
 Charlotte.Chen
 </t>
@@ -2013,6 +2025,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Sandy.Lee
+Donna.Chiu
+</t>
+  </si>
+  <si>
     <t>Forerunner 165 and 165 Music</t>
   </si>
   <si>
@@ -2075,6 +2092,58 @@
   </si>
   <si>
     <t>12510</t>
+  </si>
+  <si>
+    <t>BMW Motorrad Nav VI Production Support</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>10170</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn.Yu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankie.Lee
+</t>
+  </si>
+  <si>
+    <t>ECHOMAP Ultra 2 - 12"</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>ECHOMAP Ultra 2</t>
+  </si>
+  <si>
+    <t>16483</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac.Wang
+Darren.Chen
+</t>
+  </si>
+  <si>
+    <t>ECHOMAP Ultra 2 - 10"</t>
+  </si>
+  <si>
+    <t>1178</t>
   </si>
   <si>
     <t>Lily 2</t>
@@ -2106,68 +2175,22 @@
 </t>
   </si>
   <si>
-    <t>BMW Motorrad Nav VI Production Support</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>10170</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
-    <t>2022-10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shawn.Yu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankie.Lee
-</t>
-  </si>
-  <si>
-    <t>ECHOMAP Ultra 2 - 12"</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
-    <t>ECHOMAP Ultra 2</t>
-  </si>
-  <si>
-    <t>16483</t>
+    <t>Tread 8" OEM w/ CAN</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>15955</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>2023-05-17</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>2023-12-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac.Wang
-Darren.Chen
-</t>
-  </si>
-  <si>
-    <t>Tread 8" OEM w/ CAN</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>15955</t>
-  </si>
-  <si>
-    <t>2022-03-16</t>
   </si>
   <si>
     <t>Product - 1.3\" GTR/GNC</t>
@@ -2286,9 +2309,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kevin.Liu3
+Roger.Chan
 Tom.Tang
 Davidsd.Lin
-Roger.Chan
 </t>
   </si>
   <si>
@@ -2297,12 +2320,6 @@
 </t>
   </si>
   <si>
-    <t>ECHOMAP Ultra 2 - 10"</t>
-  </si>
-  <si>
-    <t>1178</t>
-  </si>
-  <si>
     <t>Descent Mk3 Series - Large</t>
   </si>
   <si>
@@ -2401,10 +2418,6 @@
     <t>2023-07-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Tina.Yang
-</t>
-  </si>
-  <si>
     <t>IMWW23</t>
   </si>
   <si>
@@ -2426,9 +2439,9 @@
     <t>2023-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Shawn.Yu
+    <t xml:space="preserve">Davidsd.Lin
+Shawn.Yu
 Erichw.Wang
-Davidsd.Lin
 </t>
   </si>
   <si>
@@ -3436,6 +3449,21 @@
 </t>
   </si>
   <si>
+    <t>Force Pro (Anchor Lock &amp; Sonar Relaunch)</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>17285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward.Tu
+Jimmy.Kuo
+Simonyc.Chen
+</t>
+  </si>
+  <si>
     <t>LXMY24</t>
   </si>
   <si>
@@ -3460,13 +3488,28 @@
     <t>17178</t>
   </si>
   <si>
+    <t>GPSMAP 9000xsv-13"</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
     <t>GPSMAP 9000xsv</t>
   </si>
   <si>
+    <t>17079</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000xsv-17"</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000xsv-10"</t>
+  </si>
+  <si>
     <t>1216</t>
-  </si>
-  <si>
-    <t>17079</t>
   </si>
   <si>
     <t>Descent G2</t>
@@ -3609,8 +3652,8 @@
     <t>16704</t>
   </si>
   <si>
-    <t xml:space="preserve">Davidsd.Lin
-Roger.Chan
+    <t xml:space="preserve">Roger.Chan
+Davidsd.Lin
 </t>
   </si>
   <si>
@@ -3731,6 +3774,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Anderson.Chen
+JeffPY.Liao
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jackhl.Chen
 Jason.Fan
 </t>
@@ -3745,8 +3793,8 @@
     <t>15808</t>
   </si>
   <si>
-    <t xml:space="preserve">Claudia.vanRhoon
-Robin.deGroot
+    <t xml:space="preserve">Robin.deGroot
+Claudia.vanRhoon
 </t>
   </si>
   <si>
@@ -3853,7 +3901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4135,160 +4183,150 @@
         <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>31</v>
@@ -4300,49 +4338,59 @@
         <v>33</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>31</v>
@@ -4354,36 +4402,36 @@
         <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="V8" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>101</v>
@@ -4396,7 +4444,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>31</v>
@@ -4408,30 +4456,30 @@
         <v>33</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="V9" s="1" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
@@ -4440,27 +4488,17 @@
         <v>41</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>31</v>
@@ -4472,55 +4510,59 @@
         <v>33</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>31</v>
@@ -4532,55 +4574,55 @@
         <v>33</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>31</v>
@@ -4592,30 +4634,30 @@
         <v>33</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="T12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>51</v>
@@ -4624,17 +4666,23 @@
         <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>31</v>
@@ -4646,7 +4694,7 @@
         <v>33</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>143</v>
@@ -4655,7 +4703,7 @@
         <v>144</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -4675,7 +4723,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>149</v>
@@ -4704,16 +4752,16 @@
         <v>33</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -4797,7 +4845,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>158</v>
@@ -4822,13 +4870,13 @@
         <v>33</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>47</v>
@@ -4896,7 +4944,7 @@
         <v>183</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>184</v>
@@ -4919,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>188</v>
@@ -4948,7 +4996,7 @@
         <v>33</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>192</v>
@@ -4957,7 +5005,7 @@
         <v>193</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -5018,10 +5066,10 @@
         <v>205</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -5085,7 +5133,7 @@
         <v>215</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -5139,7 +5187,7 @@
         <v>154</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -5221,7 +5269,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>239</v>
@@ -5234,7 +5282,7 @@
         <v>241</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>242</v>
@@ -5254,7 +5302,7 @@
         <v>33</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>243</v>
@@ -5263,7 +5311,7 @@
         <v>46</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -5295,7 +5343,7 @@
         <v>248</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>249</v>
@@ -5324,10 +5372,10 @@
         <v>252</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -5391,7 +5439,7 @@
         <v>36</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -5411,7 +5459,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>265</v>
@@ -5442,7 +5490,7 @@
         <v>268</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>47</v>
@@ -5465,7 +5513,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>273</v>
@@ -5563,7 +5611,7 @@
         <v>36</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -5680,7 +5728,7 @@
         <v>33</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>302</v>
@@ -5740,10 +5788,10 @@
         <v>307</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -5763,7 +5811,7 @@
         <v>312</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>296</v>
@@ -5807,7 +5855,7 @@
         <v>320</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
@@ -5827,7 +5875,7 @@
         <v>312</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>296</v>
@@ -5871,7 +5919,7 @@
         <v>320</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
@@ -5891,7 +5939,7 @@
         <v>312</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>296</v>
@@ -5935,7 +5983,7 @@
         <v>320</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -5973,7 +6021,7 @@
         <v>338</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -5996,10 +6044,10 @@
         <v>252</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -6010,29 +6058,41 @@
         <v>341</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="O36" s="4" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>31</v>
@@ -6044,84 +6104,98 @@
         <v>33</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="O37" s="4" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>51</v>
@@ -6130,95 +6204,71 @@
         <v>41</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>359</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
-        <v>369</v>
-      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>31</v>
@@ -6230,30 +6280,30 @@
         <v>33</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>129</v>
+        <v>369</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>51</v>
@@ -6262,71 +6312,75 @@
         <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="N40" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="O40" s="4" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="U40" s="1" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>385</v>
@@ -6338,15 +6392,15 @@
         <v>387</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>31</v>
@@ -6358,16 +6412,16 @@
         <v>33</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>390</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
@@ -6390,13 +6444,13 @@
         <v>41</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>395</v>
@@ -6404,15 +6458,13 @@
       <c r="K42" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>31</v>
@@ -6424,30 +6476,30 @@
         <v>33</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>51</v>
@@ -6456,7 +6508,7 @@
         <v>41</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>404</v>
@@ -6476,7 +6528,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>31</v>
@@ -6488,123 +6540,125 @@
         <v>33</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="O44" s="4" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>424</v>
+        <v>183</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>31</v>
@@ -6616,51 +6670,55 @@
         <v>33</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>111</v>
+        <v>436</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>31</v>
@@ -6672,73 +6730,69 @@
         <v>33</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>447</v>
-      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>448</v>
+        <v>118</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>47</v>
@@ -6746,55 +6800,55 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>47</v>
@@ -6802,227 +6856,231 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H49" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+        <v>466</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="L51" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="M52" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
         <v>334</v>
       </c>
@@ -7036,57 +7094,49 @@
         <v>33</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>214</v>
+        <v>480</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>484</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>487</v>
-      </c>
+      <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
         <v>334</v>
       </c>
@@ -7094,99 +7144,109 @@
         <v>31</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>488</v>
+        <v>214</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+        <v>475</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="O54" s="4" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>493</v>
+        <v>327</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>494</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -7194,71 +7254,65 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="4" t="s">
-        <v>501</v>
-      </c>
+      <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>504</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="O56" s="4" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>31</v>
@@ -7270,61 +7324,63 @@
         <v>33</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>46</v>
+        <v>508</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>37</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="E57" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4" t="s">
         <v>519</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>31</v>
@@ -7336,16 +7392,16 @@
         <v>33</v>
       </c>
       <c r="S57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T57" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="U57" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="V57" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -7356,37 +7412,35 @@
         <v>523</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K58" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="L58" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>31</v>
@@ -7398,107 +7452,105 @@
         <v>33</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>531</v>
+        <v>165</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>295</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H59" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="O59" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>327</v>
+        <v>31</v>
       </c>
       <c r="R59" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -7508,7 +7560,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>31</v>
@@ -7520,7 +7572,7 @@
         <v>33</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>214</v>
@@ -7534,49 +7586,49 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>150</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>31</v>
@@ -7591,10 +7643,10 @@
         <v>165</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>37</v>
@@ -7602,49 +7654,49 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>150</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>31</v>
@@ -7659,10 +7711,10 @@
         <v>165</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>37</v>
@@ -7670,16 +7722,16 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>295</v>
@@ -7688,31 +7740,31 @@
         <v>41</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>31</v>
@@ -7727,27 +7779,27 @@
         <v>204</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>295</v>
@@ -7756,19 +7808,19 @@
         <v>41</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>336</v>
@@ -7776,13 +7828,13 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="R64" s="4" t="s">
         <v>33</v>
@@ -7791,27 +7843,27 @@
         <v>44</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>295</v>
@@ -7820,33 +7872,33 @@
         <v>27</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R65" s="4" t="s">
         <v>33</v>
@@ -7855,10 +7907,10 @@
         <v>165</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>37</v>
@@ -7866,47 +7918,47 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>31</v>
@@ -7918,39 +7970,39 @@
         <v>33</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7960,7 +8012,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>31</v>
@@ -7972,77 +8024,77 @@
         <v>33</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>425</v>
+        <v>608</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R68" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>221</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>184</v>
@@ -8050,25 +8102,25 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -8078,7 +8130,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>31</v>
@@ -8099,30 +8151,30 @@
         <v>215</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -8132,7 +8184,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>31</v>
@@ -8144,7 +8196,7 @@
         <v>33</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>33</v>
@@ -8158,25 +8210,25 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -8186,7 +8238,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>31</v>
@@ -8204,109 +8256,111 @@
         <v>33</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>425</v>
+        <v>608</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>628</v>
+        <v>242</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>630</v>
-      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>380</v>
+        <v>634</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>632</v>
+        <v>46</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="J73" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M73" s="4" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>31</v>
@@ -8318,74 +8372,74 @@
         <v>33</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>529</v>
+        <v>348</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>201</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>647</v>
+        <v>121</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R74" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>215</v>
@@ -8396,37 +8450,43 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>651</v>
+      </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="N75" s="4" t="s">
-        <v>652</v>
+        <v>201</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>31</v>
@@ -8438,39 +8498,39 @@
         <v>33</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>214</v>
+        <v>652</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>88</v>
+        <v>653</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>656</v>
+        <v>312</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>601</v>
+        <v>61</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>355</v>
+        <v>657</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -8478,201 +8538,197 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
+      <c r="N76" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="O76" s="4" t="s">
-        <v>113</v>
+        <v>659</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>657</v>
+        <v>95</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>544</v>
+        <v>663</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>666</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4" t="s">
-        <v>667</v>
+        <v>120</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R77" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>668</v>
+        <v>33</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>97</v>
+        <v>664</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H78" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="P78" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="L79" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>31</v>
@@ -8684,127 +8740,123 @@
         <v>33</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>689</v>
+        <v>204</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>289</v>
+        <v>687</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>690</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="F80" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>529</v>
-      </c>
+      <c r="H80" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
       <c r="L80" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="P80" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R80" s="4" t="s">
         <v>33</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>74</v>
+        <v>696</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>648</v>
+        <v>289</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>37</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>176</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>31</v>
@@ -8816,10 +8868,10 @@
         <v>33</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>193</v>
@@ -8830,40 +8882,40 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>544</v>
+        <v>691</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>228</v>
@@ -8872,7 +8924,7 @@
         <v>200</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>31</v>
@@ -8890,33 +8942,33 @@
         <v>205</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -8925,10 +8977,10 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="P83" s="4" t="s">
         <v>31</v>
@@ -8943,10 +8995,10 @@
         <v>267</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="V83" s="1" t="s">
         <v>47</v>
@@ -8954,47 +9006,47 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>31</v>
@@ -9012,7 +9064,7 @@
         <v>275</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>723</v>
+        <v>33</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>47</v>
@@ -9020,43 +9072,43 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="P85" s="4" t="s">
         <v>31</v>
@@ -9068,61 +9120,61 @@
         <v>33</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>289</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P86" s="4" t="s">
         <v>31</v>
@@ -9137,7 +9189,7 @@
         <v>165</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>215</v>
@@ -9148,49 +9200,49 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="P87" s="4" t="s">
         <v>31</v>
@@ -9202,59 +9254,59 @@
         <v>33</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="P88" s="4" t="s">
         <v>31</v>
@@ -9272,60 +9324,60 @@
         <v>289</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>316</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q89" s="4" t="s">
         <v>32</v>
@@ -9334,33 +9386,33 @@
         <v>33</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="U89" s="1" t="s">
         <v>193</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>27</v>
@@ -9369,16 +9421,16 @@
         <v>202</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>285</v>
@@ -9386,7 +9438,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P90" s="4" t="s">
         <v>31</v>
@@ -9398,33 +9450,33 @@
         <v>33</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="U90" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>27</v>
@@ -9433,16 +9485,16 @@
         <v>202</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>285</v>
@@ -9450,7 +9502,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>31</v>
@@ -9462,33 +9514,33 @@
         <v>33</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>27</v>
@@ -9497,16 +9549,16 @@
         <v>202</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>285</v>
@@ -9514,7 +9566,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P92" s="4" t="s">
         <v>31</v>
@@ -9526,33 +9578,33 @@
         <v>33</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="U92" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>27</v>
@@ -9561,16 +9613,16 @@
         <v>202</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>285</v>
@@ -9578,7 +9630,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P93" s="4" t="s">
         <v>31</v>
@@ -9590,33 +9642,33 @@
         <v>33</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>27</v>
@@ -9632,7 +9684,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P94" s="4" t="s">
         <v>31</v>
@@ -9644,10 +9696,10 @@
         <v>33</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>33</v>
@@ -9658,19 +9710,19 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>27</v>
@@ -9679,28 +9731,28 @@
         <v>250</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="P95" s="4" t="s">
         <v>31</v>
@@ -9712,13 +9764,13 @@
         <v>33</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>37</v>
@@ -9726,19 +9778,19 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>27</v>
@@ -9747,28 +9799,28 @@
         <v>250</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="P96" s="4" t="s">
         <v>31</v>
@@ -9780,13 +9832,13 @@
         <v>33</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>37</v>
@@ -9794,49 +9846,49 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>31</v>
@@ -9851,10 +9903,10 @@
         <v>44</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="V97" s="1" t="s">
         <v>37</v>
@@ -9862,16 +9914,16 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>51</v>
@@ -9880,7 +9932,7 @@
         <v>225</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>535</v>
+        <v>356</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -9890,7 +9942,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>32</v>
@@ -9902,63 +9954,63 @@
         <v>33</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>535</v>
+        <v>356</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>32</v>
@@ -9970,13 +10022,13 @@
         <v>33</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>37</v>
@@ -9984,46 +10036,46 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>330</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>250</v>
@@ -10038,54 +10090,54 @@
         <v>33</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -10102,55 +10154,55 @@
         <v>33</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>284</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="P102" s="4" t="s">
         <v>31</v>
@@ -10165,10 +10217,10 @@
         <v>165</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>37</v>
@@ -10176,47 +10228,47 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P103" s="4" t="s">
         <v>31</v>
@@ -10228,13 +10280,13 @@
         <v>33</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>184</v>
@@ -10242,47 +10294,47 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P104" s="4" t="s">
         <v>31</v>
@@ -10294,10 +10346,10 @@
         <v>33</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>36</v>
@@ -10308,49 +10360,49 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>31</v>
@@ -10365,10 +10417,10 @@
         <v>251</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>184</v>
@@ -10376,49 +10428,49 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>286</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P106" s="4" t="s">
         <v>32</v>
@@ -10433,10 +10485,10 @@
         <v>182</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>47</v>
@@ -10444,25 +10496,25 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -10472,7 +10524,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>32</v>
@@ -10487,56 +10539,56 @@
         <v>251</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P108" s="4" t="s">
         <v>32</v>
@@ -10551,7 +10603,7 @@
         <v>182</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>154</v>
@@ -10562,49 +10614,49 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P109" s="4" t="s">
         <v>31</v>
@@ -10619,27 +10671,27 @@
         <v>204</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>51</v>
@@ -10648,25 +10700,25 @@
         <v>225</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P110" s="4" t="s">
         <v>32</v>
@@ -10681,51 +10733,51 @@
         <v>232</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>286</v>
@@ -10744,10 +10796,10 @@
         <v>33</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>154</v>
@@ -10758,43 +10810,43 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="P112" s="4" t="s">
         <v>31</v>
@@ -10806,66 +10858,66 @@
         <v>33</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>275</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>325</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>190</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q113" s="4" t="s">
         <v>32</v>
@@ -10874,61 +10926,61 @@
         <v>33</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="P114" s="4" t="s">
         <v>32</v>
@@ -10943,51 +10995,51 @@
         <v>259</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>298</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -11004,63 +11056,63 @@
         <v>33</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="N116" s="4" t="s">
         <v>286</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P116" s="4" t="s">
         <v>32</v>
@@ -11078,7 +11130,7 @@
         <v>252</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V116" s="1" t="s">
         <v>47</v>
@@ -11086,49 +11138,49 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>960</v>
-      </c>
       <c r="I117" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>286</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P117" s="4" t="s">
         <v>32</v>
@@ -11146,7 +11198,7 @@
         <v>252</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>47</v>
@@ -11154,45 +11206,45 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="P118" s="4" t="s">
         <v>31</v>
@@ -11204,13 +11256,13 @@
         <v>33</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>184</v>
@@ -11218,25 +11270,25 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -11246,7 +11298,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="P119" s="4" t="s">
         <v>31</v>
@@ -11258,10 +11310,10 @@
         <v>33</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="U119" s="1" t="s">
         <v>33</v>
@@ -11272,16 +11324,16 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>51</v>
@@ -11290,7 +11342,7 @@
         <v>225</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -11300,7 +11352,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="P120" s="4" t="s">
         <v>32</v>
@@ -11315,27 +11367,27 @@
         <v>232</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>51</v>
@@ -11344,7 +11396,7 @@
         <v>225</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -11354,7 +11406,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="P121" s="4" t="s">
         <v>32</v>
@@ -11369,36 +11421,36 @@
         <v>232</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -11406,13 +11458,13 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="P122" s="4" t="s">
         <v>31</v>
@@ -11424,39 +11476,39 @@
         <v>33</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>313</v>
@@ -11465,20 +11517,20 @@
         <v>314</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="P123" s="4" t="s">
         <v>32</v>
@@ -11490,13 +11542,13 @@
         <v>33</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>47</v>
@@ -11504,31 +11556,31 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>312</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -11536,7 +11588,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="P124" s="4" t="s">
         <v>31</v>
@@ -11551,27 +11603,27 @@
         <v>33</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>51</v>
@@ -11584,21 +11636,21 @@
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="P125" s="4" t="s">
         <v>31</v>
@@ -11613,27 +11665,27 @@
         <v>232</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>312</v>
@@ -11645,13 +11697,13 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -11666,30 +11718,30 @@
         <v>33</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>26</v>
@@ -11716,10 +11768,10 @@
         <v>33</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="U127" s="1" t="s">
         <v>33</v>
@@ -11730,22 +11782,22 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>26</v>
+        <v>604</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -11766,36 +11818,36 @@
         <v>33</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -11816,36 +11868,36 @@
         <v>33</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>260</v>
+        <v>1043</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -11866,36 +11918,36 @@
         <v>33</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>51</v>
+        <v>604</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -11916,36 +11968,36 @@
         <v>33</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1045</v>
+        <v>33</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1046</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -11966,36 +12018,36 @@
         <v>33</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="T132" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="E133" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -12016,33 +12068,33 @@
         <v>33</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>41</v>
@@ -12066,33 +12118,33 @@
         <v>33</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>361</v>
+        <v>1058</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1056</v>
+        <v>418</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>119</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>414</v>
+        <v>604</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>41</v>
@@ -12116,36 +12168,36 @@
         <v>33</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1045</v>
+        <v>33</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>51</v>
+        <v>604</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -12166,16 +12218,16 @@
         <v>33</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1064</v>
+        <v>259</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1065</v>
+        <v>275</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137">
@@ -12186,16 +12238,16 @@
         <v>1067</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>1063</v>
-      </c>
       <c r="E137" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -12216,36 +12268,36 @@
         <v>33</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1064</v>
+        <v>259</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1065</v>
+        <v>380</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>154</v>
+        <v>1069</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>1069</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -12266,36 +12318,36 @@
         <v>33</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1072</v>
+        <v>251</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1074</v>
+        <v>33</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>1075</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>600</v>
+        <v>51</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -12316,36 +12368,36 @@
         <v>33</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>204</v>
+        <v>1077</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>424</v>
+        <v>1078</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -12366,36 +12418,36 @@
         <v>33</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>103</v>
+        <v>1077</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>104</v>
+        <v>1078</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>1081</v>
-      </c>
       <c r="D141" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -12416,33 +12468,33 @@
         <v>33</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>820</v>
+        <v>1086</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>33</v>
+        <v>1087</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>41</v>
@@ -12466,36 +12518,36 @@
         <v>33</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1088</v>
+        <v>520</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -12516,36 +12568,36 @@
         <v>33</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -12566,36 +12618,36 @@
         <v>33</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1088</v>
+        <v>824</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>51</v>
+        <v>604</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -12616,10 +12668,10 @@
         <v>33</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1011</v>
+        <v>1101</v>
       </c>
       <c r="U145" s="1" t="s">
         <v>33</v>
@@ -12630,22 +12682,22 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -12666,13 +12718,13 @@
         <v>33</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V146" s="1" t="s">
         <v>37</v>
@@ -12680,22 +12732,22 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>600</v>
+        <v>51</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -12716,36 +12768,36 @@
         <v>33</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>251</v>
+        <v>1108</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1106</v>
+        <v>193</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>1108</v>
-      </c>
       <c r="D148" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>1111</v>
+        <v>51</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -12766,16 +12818,16 @@
         <v>33</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>360</v>
+        <v>33</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>33</v>
+        <v>1015</v>
       </c>
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -12786,16 +12838,16 @@
         <v>1113</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>1115</v>
-      </c>
       <c r="E149" s="4" t="s">
-        <v>684</v>
+        <v>51</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -12816,36 +12868,36 @@
         <v>33</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1116</v>
+        <v>33</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>1119</v>
-      </c>
       <c r="E150" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -12866,36 +12918,36 @@
         <v>33</v>
       </c>
       <c r="S150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V150" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="T150" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="U150" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="V150" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>1122</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="F151" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -12916,36 +12968,36 @@
         <v>33</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1125</v>
+        <v>33</v>
       </c>
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>1127</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>1126</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -12957,7 +13009,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q152" s="4" t="s">
         <v>32</v>
@@ -12966,36 +13018,36 @@
         <v>33</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1011</v>
+        <v>1129</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1012</v>
+        <v>33</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1013</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>1129</v>
-      </c>
       <c r="D153" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>414</v>
+        <v>604</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -13016,36 +13068,36 @@
         <v>33</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>33</v>
+        <v>1133</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>33</v>
+        <v>1135</v>
       </c>
       <c r="V153" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>312</v>
+        <v>547</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -13069,13 +13121,163 @@
         <v>33</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R155" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q157" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
